--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col11a1</t>
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.006469666666666668</v>
+        <v>0.06886266666666667</v>
       </c>
       <c r="H2">
-        <v>0.019409</v>
+        <v>0.206588</v>
       </c>
       <c r="I2">
-        <v>0.0003189585344045152</v>
+        <v>0.003217064976512115</v>
       </c>
       <c r="J2">
-        <v>0.0003189585344045152</v>
+        <v>0.003217064976512115</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N2">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O2">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P2">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q2">
-        <v>0.002285047448666667</v>
+        <v>0.011461915416</v>
       </c>
       <c r="R2">
-        <v>0.020565427038</v>
+        <v>0.103157238744</v>
       </c>
       <c r="S2">
-        <v>5.532305027414778E-06</v>
+        <v>2.768949987930001E-05</v>
       </c>
       <c r="T2">
-        <v>5.532305027414777E-06</v>
+        <v>2.768949987930002E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.006469666666666668</v>
+        <v>0.06886266666666667</v>
       </c>
       <c r="H3">
-        <v>0.019409</v>
+        <v>0.206588</v>
       </c>
       <c r="I3">
-        <v>0.0003189585344045152</v>
+        <v>0.003217064976512115</v>
       </c>
       <c r="J3">
-        <v>0.0003189585344045152</v>
+        <v>0.003217064976512115</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.670859</v>
       </c>
       <c r="O3">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P3">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q3">
-        <v>0.01222952248122222</v>
+        <v>0.1301701576768889</v>
       </c>
       <c r="R3">
-        <v>0.110065702331</v>
+        <v>1.171531419092</v>
       </c>
       <c r="S3">
-        <v>2.960877190765825E-05</v>
+        <v>0.0003144628480028105</v>
       </c>
       <c r="T3">
-        <v>2.960877190765824E-05</v>
+        <v>0.0003144628480028107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.006469666666666668</v>
+        <v>0.06886266666666667</v>
       </c>
       <c r="H4">
-        <v>0.019409</v>
+        <v>0.206588</v>
       </c>
       <c r="I4">
-        <v>0.0003189585344045152</v>
+        <v>0.003217064976512115</v>
       </c>
       <c r="J4">
-        <v>0.0003189585344045152</v>
+        <v>0.003217064976512115</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N4">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O4">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P4">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q4">
-        <v>0.1157700936932222</v>
+        <v>1.179917216233778</v>
       </c>
       <c r="R4">
-        <v>1.041930843239</v>
+        <v>10.619254946104</v>
       </c>
       <c r="S4">
-        <v>0.0002802897908036933</v>
+        <v>0.00285042389781401</v>
       </c>
       <c r="T4">
-        <v>0.0002802897908036932</v>
+        <v>0.00285042389781401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.006469666666666668</v>
+        <v>0.06886266666666667</v>
       </c>
       <c r="H5">
-        <v>0.019409</v>
+        <v>0.206588</v>
       </c>
       <c r="I5">
-        <v>0.0003189585344045152</v>
+        <v>0.003217064976512115</v>
       </c>
       <c r="J5">
-        <v>0.0003189585344045152</v>
+        <v>0.003217064976512115</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N5">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O5">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P5">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q5">
-        <v>0.001457057352111111</v>
+        <v>0.01013697475511111</v>
       </c>
       <c r="R5">
-        <v>0.013113516169</v>
+        <v>0.09123277279600001</v>
       </c>
       <c r="S5">
-        <v>3.527666665748897E-06</v>
+        <v>2.448873081599405E-05</v>
       </c>
       <c r="T5">
-        <v>3.527666665748897E-06</v>
+        <v>2.448873081599406E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>57.988338</v>
       </c>
       <c r="I6">
-        <v>0.9529535422244141</v>
+        <v>0.903015911988821</v>
       </c>
       <c r="J6">
-        <v>0.952953542224414</v>
+        <v>0.9030159119888211</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N6">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O6">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P6">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q6">
-        <v>6.827044350524001</v>
+        <v>3.217308968916</v>
       </c>
       <c r="R6">
-        <v>61.443399154716</v>
+        <v>28.955780720244</v>
       </c>
       <c r="S6">
-        <v>0.01652888731252652</v>
+        <v>0.007772320164055068</v>
       </c>
       <c r="T6">
-        <v>0.01652888731252652</v>
+        <v>0.007772320164055071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>57.988338</v>
       </c>
       <c r="I7">
-        <v>0.9529535422244141</v>
+        <v>0.903015911988821</v>
       </c>
       <c r="J7">
-        <v>0.952953542224414</v>
+        <v>0.9030159119888211</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.670859</v>
       </c>
       <c r="O7">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P7">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q7">
         <v>36.53818760470467</v>
@@ -883,10 +883,10 @@
         <v>328.843688442342</v>
       </c>
       <c r="S7">
-        <v>0.08846223263157252</v>
+        <v>0.08826833077637425</v>
       </c>
       <c r="T7">
-        <v>0.0884622326315725</v>
+        <v>0.08826833077637428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>57.988338</v>
       </c>
       <c r="I8">
-        <v>0.9529535422244141</v>
+        <v>0.903015911988821</v>
       </c>
       <c r="J8">
-        <v>0.952953542224414</v>
+        <v>0.9030159119888211</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N8">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O8">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P8">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q8">
-        <v>345.8867187064886</v>
+        <v>331.1975446152894</v>
       </c>
       <c r="R8">
-        <v>3112.980468358398</v>
+        <v>2980.777901537604</v>
       </c>
       <c r="S8">
-        <v>0.8374228000965457</v>
+        <v>0.8001013826055543</v>
       </c>
       <c r="T8">
-        <v>0.8374228000965456</v>
+        <v>0.8001013826055544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>57.988338</v>
       </c>
       <c r="I9">
-        <v>0.9529535422244141</v>
+        <v>0.903015911988821</v>
       </c>
       <c r="J9">
-        <v>0.952953542224414</v>
+        <v>0.9030159119888211</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N9">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O9">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P9">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q9">
-        <v>4.353255408295333</v>
+        <v>2.845403984727334</v>
       </c>
       <c r="R9">
-        <v>39.17929867465799</v>
+        <v>25.608635862546</v>
       </c>
       <c r="S9">
-        <v>0.01053962218376939</v>
+        <v>0.006873878442837333</v>
       </c>
       <c r="T9">
-        <v>0.01053962218376939</v>
+        <v>0.006873878442837334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9478076666666667</v>
+        <v>1.981008666666667</v>
       </c>
       <c r="H10">
-        <v>2.843423</v>
+        <v>5.943026</v>
       </c>
       <c r="I10">
-        <v>0.04672749924118139</v>
+        <v>0.09254700563005056</v>
       </c>
       <c r="J10">
-        <v>0.04672749924118139</v>
+        <v>0.09254700563005058</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N10">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O10">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P10">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q10">
-        <v>0.3347599810206667</v>
+        <v>0.329730968532</v>
       </c>
       <c r="R10">
-        <v>3.012839829186</v>
+        <v>2.967578716788</v>
       </c>
       <c r="S10">
-        <v>0.0008104839691878411</v>
+        <v>0.0007965584531031658</v>
       </c>
       <c r="T10">
-        <v>0.0008104839691878411</v>
+        <v>0.0007965584531031663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9478076666666667</v>
+        <v>1.981008666666667</v>
       </c>
       <c r="H11">
-        <v>2.843423</v>
+        <v>5.943026</v>
       </c>
       <c r="I11">
-        <v>0.04672749924118139</v>
+        <v>0.09254700563005056</v>
       </c>
       <c r="J11">
-        <v>0.04672749924118139</v>
+        <v>0.09254700563005058</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.670859</v>
       </c>
       <c r="O11">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P11">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q11">
-        <v>1.791627878928556</v>
+        <v>3.744673608814889</v>
       </c>
       <c r="R11">
-        <v>16.124650910357</v>
+        <v>33.702062479334</v>
       </c>
       <c r="S11">
-        <v>0.00433769194930132</v>
+        <v>0.009046318671533443</v>
       </c>
       <c r="T11">
-        <v>0.00433769194930132</v>
+        <v>0.009046318671533448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9478076666666667</v>
+        <v>1.981008666666667</v>
       </c>
       <c r="H12">
-        <v>2.843423</v>
+        <v>5.943026</v>
       </c>
       <c r="I12">
-        <v>0.04672749924118139</v>
+        <v>0.09254700563005056</v>
       </c>
       <c r="J12">
-        <v>0.04672749924118139</v>
+        <v>0.09254700563005058</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N12">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O12">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P12">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q12">
-        <v>16.96034556749255</v>
+        <v>33.94330113038978</v>
       </c>
       <c r="R12">
-        <v>152.643110107433</v>
+        <v>305.489710173508</v>
       </c>
       <c r="S12">
-        <v>0.04106251933826626</v>
+        <v>0.08199964826480725</v>
       </c>
       <c r="T12">
-        <v>0.04106251933826626</v>
+        <v>0.08199964826480728</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.981008666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.943026</v>
+      </c>
+      <c r="I13">
+        <v>0.09254700563005056</v>
+      </c>
+      <c r="J13">
+        <v>0.09254700563005058</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1472056666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.441617</v>
+      </c>
+      <c r="O13">
+        <v>0.007612134350654087</v>
+      </c>
+      <c r="P13">
+        <v>0.007612134350654088</v>
+      </c>
+      <c r="Q13">
+        <v>0.2916157014491111</v>
+      </c>
+      <c r="R13">
+        <v>2.624541313042</v>
+      </c>
+      <c r="S13">
+        <v>0.000704480240606685</v>
+      </c>
+      <c r="T13">
+        <v>0.0007044802406066854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.9478076666666667</v>
-      </c>
-      <c r="H13">
-        <v>2.843423</v>
-      </c>
-      <c r="I13">
-        <v>0.04672749924118139</v>
-      </c>
-      <c r="J13">
-        <v>0.04672749924118139</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.2252136666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.6756409999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.01105995383486111</v>
-      </c>
-      <c r="P13">
-        <v>0.01105995383486111</v>
-      </c>
-      <c r="Q13">
-        <v>0.2134592399047778</v>
-      </c>
-      <c r="R13">
-        <v>1.921133159143</v>
-      </c>
-      <c r="S13">
-        <v>0.0005168039844259737</v>
-      </c>
-      <c r="T13">
-        <v>0.0005168039844259737</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.026115</v>
+      </c>
+      <c r="H14">
+        <v>0.078345</v>
+      </c>
+      <c r="I14">
+        <v>0.001220017404616152</v>
+      </c>
+      <c r="J14">
+        <v>0.001220017404616152</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.166446</v>
+      </c>
+      <c r="N14">
+        <v>0.4993379999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.008607068890887148</v>
+      </c>
+      <c r="P14">
+        <v>0.008607068890887149</v>
+      </c>
+      <c r="Q14">
+        <v>0.00434673729</v>
+      </c>
+      <c r="R14">
+        <v>0.03912063561</v>
+      </c>
+      <c r="S14">
+        <v>1.050077384961256E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.050077384961256E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.026115</v>
+      </c>
+      <c r="H15">
+        <v>0.078345</v>
+      </c>
+      <c r="I15">
+        <v>0.001220017404616152</v>
+      </c>
+      <c r="J15">
+        <v>0.001220017404616152</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.890286333333333</v>
+      </c>
+      <c r="N15">
+        <v>5.670859</v>
+      </c>
+      <c r="O15">
+        <v>0.09774836700492934</v>
+      </c>
+      <c r="P15">
+        <v>0.09774836700492935</v>
+      </c>
+      <c r="Q15">
+        <v>0.049364827595</v>
+      </c>
+      <c r="R15">
+        <v>0.444283448355</v>
+      </c>
+      <c r="S15">
+        <v>0.000119254709018821</v>
+      </c>
+      <c r="T15">
+        <v>0.000119254709018821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.026115</v>
+      </c>
+      <c r="H16">
+        <v>0.078345</v>
+      </c>
+      <c r="I16">
+        <v>0.001220017404616152</v>
+      </c>
+      <c r="J16">
+        <v>0.001220017404616152</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.13435266666667</v>
+      </c>
+      <c r="N16">
+        <v>51.403058</v>
+      </c>
+      <c r="O16">
+        <v>0.8860324297535294</v>
+      </c>
+      <c r="P16">
+        <v>0.8860324297535294</v>
+      </c>
+      <c r="Q16">
+        <v>0.4474636198900001</v>
+      </c>
+      <c r="R16">
+        <v>4.02717257901</v>
+      </c>
+      <c r="S16">
+        <v>0.001080974985353644</v>
+      </c>
+      <c r="T16">
+        <v>0.001080974985353644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.026115</v>
+      </c>
+      <c r="H17">
+        <v>0.078345</v>
+      </c>
+      <c r="I17">
+        <v>0.001220017404616152</v>
+      </c>
+      <c r="J17">
+        <v>0.001220017404616152</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1472056666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.441617</v>
+      </c>
+      <c r="O17">
+        <v>0.007612134350654087</v>
+      </c>
+      <c r="P17">
+        <v>0.007612134350654088</v>
+      </c>
+      <c r="Q17">
+        <v>0.003844275985</v>
+      </c>
+      <c r="R17">
+        <v>0.034598483865</v>
+      </c>
+      <c r="S17">
+        <v>9.286936394074456E-06</v>
+      </c>
+      <c r="T17">
+        <v>9.286936394074458E-06</v>
       </c>
     </row>
   </sheetData>
